--- a/gerbers/V2/2209_4x_Module_V2_BOM.xlsx
+++ b/gerbers/V2/2209_4x_Module_V2_BOM.xlsx
@@ -11,24 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="186">
   <si>
     <t>RefDes</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Qty SMT</t>
+  </si>
+  <si>
+    <t>Qty TH</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>SMT</t>
-  </si>
-  <si>
-    <t>TH</t>
+    <t>Pattern</t>
   </si>
   <si>
     <t>Manufacturer</t>
@@ -43,19 +46,22 @@
     <t>C1, C5, C16, C20</t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>POL_100uF_35V</t>
-  </si>
-  <si>
-    <t>ST(Semtech)</t>
-  </si>
-  <si>
-    <t>CK1V101MCRE77</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_ST-Semtech-CK1V101MCRE77_C263958.html</t>
+    <t>100uF 35V</t>
+  </si>
+  <si>
+    <t>POL_100uF_35V EEEFK1V101XP</t>
+  </si>
+  <si>
+    <t>CaP_Elec_SMD_6.6x7.8</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>EEEFK1V101XP</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_PANASONIC-EEEFK1V101XP_C178560.html</t>
   </si>
   <si>
     <t>C2, C3, C4, C6, C7, C8, C12, C14, C17, C18, C19, C21, C22, C23, C26, C28, C30, C31, C32, C33, C34, C35, C36</t>
@@ -67,6 +73,9 @@
     <t>NP_100nF_50V_0402</t>
   </si>
   <si>
+    <t>CAP_0402_N</t>
+  </si>
+  <si>
     <t>Samsung Electro-Mechanics</t>
   </si>
   <si>
@@ -100,28 +109,16 @@
     <t>4.7uF_25V_0603</t>
   </si>
   <si>
+    <t>CAP_0603</t>
+  </si>
+  <si>
     <t>CL10A475KA8NQNC</t>
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A475KA8NQNC_4-7uF-475-10-25V_C69335.html</t>
   </si>
   <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>10uF 50V</t>
-  </si>
-  <si>
-    <t>NP_10uF_50V_1206</t>
-  </si>
-  <si>
-    <t>UMK316BBJ106ML-T</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL31A106KBHNNNE_10uF-106-10-50V_C13585.html/?href=jlc-SMT</t>
-  </si>
-  <si>
-    <t>C37</t>
+    <t>C15, C37</t>
   </si>
   <si>
     <t>10uF 35V</t>
@@ -130,6 +127,9 @@
     <t>NP_10uF_35V_1206</t>
   </si>
   <si>
+    <t>CAP_1206</t>
+  </si>
+  <si>
     <t>Taiyo Yuden</t>
   </si>
   <si>
@@ -172,24 +172,6 @@
     <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603B101K500_C123499.html</t>
   </si>
   <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>330uF</t>
-  </si>
-  <si>
-    <t>POL_330uF_50V_10x10</t>
-  </si>
-  <si>
-    <t>Lelon</t>
-  </si>
-  <si>
-    <t>VZT331M1HTR-1010</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Others_Lelon-VZT331M1H1010-TRO_C249985.html</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -199,6 +181,9 @@
     <t>Schottkey_40V_3A_DO-214AC</t>
   </si>
   <si>
+    <t>b340a-13-f</t>
+  </si>
+  <si>
     <t>Diodes Incorporated</t>
   </si>
   <si>
@@ -217,6 +202,9 @@
     <t>XH-4A</t>
   </si>
   <si>
+    <t>B4B-XH-AM</t>
+  </si>
+  <si>
     <t>BOOMELE(Boom Precision Elec)</t>
   </si>
   <si>
@@ -235,6 +223,9 @@
     <t xml:space="preserve">HDR Socket 1x19 0.1 </t>
   </si>
   <si>
+    <t>HDR-1x19</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Popular Products About LCSC</t>
   </si>
   <si>
@@ -271,6 +262,9 @@
     <t>Header_2x4P</t>
   </si>
   <si>
+    <t xml:space="preserve">Header_2x4P 0.1 </t>
+  </si>
+  <si>
     <t>CJT(Changjiang Connectors)</t>
   </si>
   <si>
@@ -289,6 +283,9 @@
     <t>15uH_MWSA0603S</t>
   </si>
   <si>
+    <t>Inductor_MWSA0603S</t>
+  </si>
+  <si>
     <t>Sunlord</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
     <t>LED_GRN_0805 (Foshan)</t>
   </si>
   <si>
+    <t>LED_0805</t>
+  </si>
+  <si>
     <t>Foshan NationStar Optoelectronics</t>
   </si>
   <si>
@@ -322,6 +322,12 @@
     <t>Do Not Place</t>
   </si>
   <si>
+    <t>Mounting_hole_M3.7</t>
+  </si>
+  <si>
+    <t>M4 Mounting Hole</t>
+  </si>
+  <si>
     <t>MOD1</t>
   </si>
   <si>
@@ -331,6 +337,9 @@
     <t>CNC_Module_Socket</t>
   </si>
   <si>
+    <t>CNC_Module_V3</t>
+  </si>
+  <si>
     <t>A2541HWV-12P</t>
   </si>
   <si>
@@ -346,6 +355,9 @@
     <t>10k_0402</t>
   </si>
   <si>
+    <t>RES_0402_N</t>
+  </si>
+  <si>
     <t>YAGEO</t>
   </si>
   <si>
@@ -364,6 +376,9 @@
     <t>0.11R_1206</t>
   </si>
   <si>
+    <t>RES_1206</t>
+  </si>
+  <si>
     <t>Uniroyal Elec</t>
   </si>
   <si>
@@ -427,6 +442,9 @@
     <t>510k_0603</t>
   </si>
   <si>
+    <t>RES_0603</t>
+  </si>
+  <si>
     <t>RC0603FR-07510KL</t>
   </si>
   <si>
@@ -472,6 +490,9 @@
     <t>TF-01A</t>
   </si>
   <si>
+    <t>TF-01A_Rev2</t>
+  </si>
+  <si>
     <t>Korean Hroparts Elec</t>
   </si>
   <si>
@@ -484,6 +505,9 @@
     <t>TB_5p08mm_2POS Socket</t>
   </si>
   <si>
+    <t>TB_5mm_2POS</t>
+  </si>
+  <si>
     <t>Ningbo Xinlaiya Elec.</t>
   </si>
   <si>
@@ -514,6 +538,9 @@
     <t>AHCT125</t>
   </si>
   <si>
+    <t>TSSOP-14</t>
+  </si>
+  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
@@ -527,6 +554,9 @@
   </si>
   <si>
     <t>TPS54202</t>
+  </si>
+  <si>
+    <t>SOT23-THIN-6</t>
   </si>
   <si>
     <t>TPS54202HDDCR</t>
@@ -545,7 +575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -556,25 +586,53 @@
     </font>
     <font/>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -585,8 +643,21 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -608,6 +679,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="45.57"/>
+    <col customWidth="1" min="6" max="6" width="17.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -637,891 +712,935 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2">
+      <c r="B3" s="2">
         <v>23.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C3" s="2">
         <v>23.0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
         <v>4.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5" s="2">
         <v>4.0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>41</v>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>4.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>9.0</v>
+        <v>87</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>1.0</v>
+        <v>118</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>9.0</v>
+        <v>125</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>119</v>
+      <c r="I21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>124</v>
+      <c r="I22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1.0</v>
       </c>
-      <c r="E27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ref="D34:F34" si="1">Sum(D2:D32)</f>
-        <v>107</v>
-      </c>
-      <c r="E34">
+      <c r="A32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:D32" si="1">sum(B2:B30)</f>
+        <v>106</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="F34">
+        <v>87</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35:F35" si="2">count(D2:D32)</f>
-        <v>30</v>
-      </c>
-      <c r="E35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:D33" si="2">count(B2:B30)</f>
+        <v>28</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="I4"/>
-    <hyperlink r:id="rId4" ref="I5"/>
-    <hyperlink r:id="rId5" ref="I6"/>
-    <hyperlink r:id="rId6" ref="I7"/>
-    <hyperlink r:id="rId7" ref="I8"/>
-    <hyperlink r:id="rId8" ref="I9"/>
-    <hyperlink r:id="rId9" ref="I10"/>
-    <hyperlink r:id="rId10" ref="I11"/>
-    <hyperlink r:id="rId11" ref="I12"/>
-    <hyperlink r:id="rId12" ref="I13"/>
-    <hyperlink r:id="rId13" ref="I14"/>
-    <hyperlink r:id="rId14" ref="I15"/>
-    <hyperlink r:id="rId15" ref="I16"/>
-    <hyperlink r:id="rId16" ref="I17"/>
-    <hyperlink r:id="rId17" ref="I19"/>
-    <hyperlink r:id="rId18" ref="I20"/>
-    <hyperlink r:id="rId19" ref="I21"/>
-    <hyperlink r:id="rId20" ref="I22"/>
-    <hyperlink r:id="rId21" ref="I23"/>
-    <hyperlink r:id="rId22" ref="I24"/>
-    <hyperlink r:id="rId23" ref="I25"/>
-    <hyperlink r:id="rId24" ref="I26"/>
-    <hyperlink r:id="rId25" ref="I27"/>
-    <hyperlink r:id="rId26" ref="I28"/>
-    <hyperlink r:id="rId27" ref="I29"/>
-    <hyperlink r:id="rId28" ref="I30"/>
-    <hyperlink r:id="rId29" ref="I31"/>
-    <hyperlink r:id="rId30" ref="I32"/>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J3"/>
+    <hyperlink r:id="rId3" ref="J4"/>
+    <hyperlink r:id="rId4" ref="J5"/>
+    <hyperlink r:id="rId5" ref="J6"/>
+    <hyperlink r:id="rId6" ref="J7"/>
+    <hyperlink r:id="rId7" ref="J8"/>
+    <hyperlink r:id="rId8" ref="J9"/>
+    <hyperlink r:id="rId9" ref="J10"/>
+    <hyperlink r:id="rId10" ref="J11"/>
+    <hyperlink r:id="rId11" ref="J12"/>
+    <hyperlink r:id="rId12" ref="J13"/>
+    <hyperlink r:id="rId13" ref="J14"/>
+    <hyperlink r:id="rId14" ref="J15"/>
+    <hyperlink r:id="rId15" ref="J17"/>
+    <hyperlink r:id="rId16" ref="J18"/>
+    <hyperlink r:id="rId17" ref="J19"/>
+    <hyperlink r:id="rId18" ref="J20"/>
+    <hyperlink r:id="rId19" ref="J21"/>
+    <hyperlink r:id="rId20" ref="J22"/>
+    <hyperlink r:id="rId21" ref="J23"/>
+    <hyperlink r:id="rId22" ref="J24"/>
+    <hyperlink r:id="rId23" ref="J25"/>
+    <hyperlink r:id="rId24" ref="J26"/>
+    <hyperlink r:id="rId25" ref="J27"/>
+    <hyperlink r:id="rId26" ref="J28"/>
+    <hyperlink r:id="rId27" ref="J29"/>
+    <hyperlink r:id="rId28" ref="J30"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>